--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.31719433333334</v>
+        <v>21.267222</v>
       </c>
       <c r="H2">
-        <v>120.951583</v>
+        <v>63.801666</v>
       </c>
       <c r="I2">
-        <v>0.1054453461914981</v>
+        <v>0.06271644651145813</v>
       </c>
       <c r="J2">
-        <v>0.1054453461914981</v>
+        <v>0.06271644651145813</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.029758</v>
+        <v>0.07423700000000001</v>
       </c>
       <c r="N2">
-        <v>0.08927400000000001</v>
+        <v>0.222711</v>
       </c>
       <c r="O2">
-        <v>0.003438994103662517</v>
+        <v>0.006982421219793508</v>
       </c>
       <c r="P2">
-        <v>0.003438994103662517</v>
+        <v>0.006982421219793506</v>
       </c>
       <c r="Q2">
-        <v>1.199759068971334</v>
+        <v>1.578814759614</v>
       </c>
       <c r="R2">
-        <v>10.797831620742</v>
+        <v>14.209332836526</v>
       </c>
       <c r="S2">
-        <v>0.0003626259238112147</v>
+        <v>0.0004379126469516498</v>
       </c>
       <c r="T2">
-        <v>0.0003626259238112148</v>
+        <v>0.0004379126469516497</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.31719433333334</v>
+        <v>21.267222</v>
       </c>
       <c r="H3">
-        <v>120.951583</v>
+        <v>63.801666</v>
       </c>
       <c r="I3">
-        <v>0.1054453461914981</v>
+        <v>0.06271644651145813</v>
       </c>
       <c r="J3">
-        <v>0.1054453461914981</v>
+        <v>0.06271644651145813</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.297976</v>
       </c>
       <c r="O3">
-        <v>0.01147856830693082</v>
+        <v>0.009342124750861835</v>
       </c>
       <c r="P3">
-        <v>0.01147856830693082</v>
+        <v>0.009342124750861833</v>
       </c>
       <c r="Q3">
-        <v>4.004518766223112</v>
+        <v>2.112373914224</v>
       </c>
       <c r="R3">
-        <v>36.04066889600801</v>
+        <v>19.011365228016</v>
       </c>
       <c r="S3">
-        <v>0.001210361608907078</v>
+        <v>0.0005859048672407954</v>
       </c>
       <c r="T3">
-        <v>0.001210361608907079</v>
+        <v>0.0005859048672407953</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.31719433333334</v>
+        <v>21.267222</v>
       </c>
       <c r="H4">
-        <v>120.951583</v>
+        <v>63.801666</v>
       </c>
       <c r="I4">
-        <v>0.1054453461914981</v>
+        <v>0.06271644651145813</v>
       </c>
       <c r="J4">
-        <v>0.1054453461914981</v>
+        <v>0.06271644651145813</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.379923</v>
+        <v>0.08773500000000001</v>
       </c>
       <c r="N4">
-        <v>1.139769</v>
+        <v>0.263205</v>
       </c>
       <c r="O4">
-        <v>0.043905939809321</v>
+        <v>0.00825198655277804</v>
       </c>
       <c r="P4">
-        <v>0.043905939809321</v>
+        <v>0.00825198655277804</v>
       </c>
       <c r="Q4">
-        <v>15.317429422703</v>
+        <v>1.86587972217</v>
       </c>
       <c r="R4">
-        <v>137.856864804327</v>
+        <v>16.79291749953</v>
       </c>
       <c r="S4">
-        <v>0.004629677023056929</v>
+        <v>0.0005175352732505758</v>
       </c>
       <c r="T4">
-        <v>0.004629677023056931</v>
+        <v>0.0005175352732505758</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.31719433333334</v>
+        <v>21.267222</v>
       </c>
       <c r="H5">
-        <v>120.951583</v>
+        <v>63.801666</v>
       </c>
       <c r="I5">
-        <v>0.1054453461914981</v>
+        <v>0.06271644651145813</v>
       </c>
       <c r="J5">
-        <v>0.1054453461914981</v>
+        <v>0.06271644651145813</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.144105333333334</v>
+        <v>10.370688</v>
       </c>
       <c r="N5">
-        <v>24.432316</v>
+        <v>31.112064</v>
       </c>
       <c r="O5">
-        <v>0.9411764977800856</v>
+        <v>0.9754234674765666</v>
       </c>
       <c r="P5">
-        <v>0.9411764977800857</v>
+        <v>0.9754234674765666</v>
       </c>
       <c r="Q5">
-        <v>328.3474773951365</v>
+        <v>220.555723988736</v>
       </c>
       <c r="R5">
-        <v>2955.127296556228</v>
+        <v>1985.001515898624</v>
       </c>
       <c r="S5">
-        <v>0.09924268163572285</v>
+        <v>0.06117509372401511</v>
       </c>
       <c r="T5">
-        <v>0.09924268163572288</v>
+        <v>0.06117509372401511</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>412.424102</v>
       </c>
       <c r="I6">
-        <v>0.3595505005759843</v>
+        <v>0.4054090708715844</v>
       </c>
       <c r="J6">
-        <v>0.3595505005759843</v>
+        <v>0.4054090708715843</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.029758</v>
+        <v>0.07423700000000001</v>
       </c>
       <c r="N6">
-        <v>0.08927400000000001</v>
+        <v>0.222711</v>
       </c>
       <c r="O6">
-        <v>0.003438994103662517</v>
+        <v>0.006982421219793508</v>
       </c>
       <c r="P6">
-        <v>0.003438994103662517</v>
+        <v>0.006982421219793506</v>
       </c>
       <c r="Q6">
-        <v>4.090972142438668</v>
+        <v>10.20570935339134</v>
       </c>
       <c r="R6">
-        <v>36.818749281948</v>
+        <v>91.851384180522</v>
       </c>
       <c r="S6">
-        <v>0.001236492051449717</v>
+        <v>0.002830736899150521</v>
       </c>
       <c r="T6">
-        <v>0.001236492051449717</v>
+        <v>0.00283073689915052</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>412.424102</v>
       </c>
       <c r="I7">
-        <v>0.3595505005759843</v>
+        <v>0.4054090708715844</v>
       </c>
       <c r="J7">
-        <v>0.3595505005759843</v>
+        <v>0.4054090708715843</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>0.297976</v>
       </c>
       <c r="O7">
-        <v>0.01147856830693082</v>
+        <v>0.009342124750861835</v>
       </c>
       <c r="P7">
-        <v>0.01147856830693082</v>
+        <v>0.009342124750861833</v>
       </c>
       <c r="Q7">
         <v>13.65472046861689</v>
@@ -883,10 +883,10 @@
         <v>122.892484217552</v>
       </c>
       <c r="S7">
-        <v>0.004127124980652605</v>
+        <v>0.003787382115213328</v>
       </c>
       <c r="T7">
-        <v>0.004127124980652606</v>
+        <v>0.003787382115213327</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>412.424102</v>
       </c>
       <c r="I8">
-        <v>0.3595505005759843</v>
+        <v>0.4054090708715844</v>
       </c>
       <c r="J8">
-        <v>0.3595505005759843</v>
+        <v>0.4054090708715843</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.379923</v>
+        <v>0.08773500000000001</v>
       </c>
       <c r="N8">
-        <v>1.139769</v>
+        <v>0.263205</v>
       </c>
       <c r="O8">
-        <v>0.043905939809321</v>
+        <v>0.00825198655277804</v>
       </c>
       <c r="P8">
-        <v>0.043905939809321</v>
+        <v>0.00825198655277804</v>
       </c>
       <c r="Q8">
-        <v>52.229800701382</v>
+        <v>12.06134286299</v>
       </c>
       <c r="R8">
-        <v>470.068206312438</v>
+        <v>108.55208576691</v>
       </c>
       <c r="S8">
-        <v>0.0157864026367004</v>
+        <v>0.003345430201206554</v>
       </c>
       <c r="T8">
-        <v>0.01578640263670041</v>
+        <v>0.003345430201206553</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>412.424102</v>
       </c>
       <c r="I9">
-        <v>0.3595505005759843</v>
+        <v>0.4054090708715844</v>
       </c>
       <c r="J9">
-        <v>0.3595505005759843</v>
+        <v>0.4054090708715843</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.144105333333334</v>
+        <v>10.370688</v>
       </c>
       <c r="N9">
-        <v>24.432316</v>
+        <v>31.112064</v>
       </c>
       <c r="O9">
-        <v>0.9411764977800856</v>
+        <v>0.9754234674765666</v>
       </c>
       <c r="P9">
-        <v>0.9411764977800857</v>
+        <v>0.9754234674765666</v>
       </c>
       <c r="Q9">
-        <v>1119.608442897804</v>
+        <v>1425.707228507392</v>
       </c>
       <c r="R9">
-        <v>10076.47598608023</v>
+        <v>12831.36505656653</v>
       </c>
       <c r="S9">
-        <v>0.3384004809071816</v>
+        <v>0.395445521656014</v>
       </c>
       <c r="T9">
-        <v>0.3384004809071816</v>
+        <v>0.3954455216560139</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>122.756256</v>
+        <v>121.820091</v>
       </c>
       <c r="H10">
-        <v>368.268768</v>
+        <v>365.460273</v>
       </c>
       <c r="I10">
-        <v>0.321055969422711</v>
+        <v>0.3592440621169263</v>
       </c>
       <c r="J10">
-        <v>0.321055969422711</v>
+        <v>0.3592440621169263</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.029758</v>
+        <v>0.07423700000000001</v>
       </c>
       <c r="N10">
-        <v>0.08927400000000001</v>
+        <v>0.222711</v>
       </c>
       <c r="O10">
-        <v>0.003438994103662517</v>
+        <v>0.006982421219793508</v>
       </c>
       <c r="P10">
-        <v>0.003438994103662517</v>
+        <v>0.006982421219793506</v>
       </c>
       <c r="Q10">
-        <v>3.652980666048001</v>
+        <v>9.043558095567002</v>
       </c>
       <c r="R10">
-        <v>32.876825994432</v>
+        <v>81.39202286010301</v>
       </c>
       <c r="S10">
-        <v>0.001104109585790356</v>
+        <v>0.002508393362410044</v>
       </c>
       <c r="T10">
-        <v>0.001104109585790357</v>
+        <v>0.002508393362410043</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>122.756256</v>
+        <v>121.820091</v>
       </c>
       <c r="H11">
-        <v>368.268768</v>
+        <v>365.460273</v>
       </c>
       <c r="I11">
-        <v>0.321055969422711</v>
+        <v>0.3592440621169263</v>
       </c>
       <c r="J11">
-        <v>0.321055969422711</v>
+        <v>0.3592440621169263</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>0.297976</v>
       </c>
       <c r="O11">
-        <v>0.01147856830693082</v>
+        <v>0.009342124750861835</v>
       </c>
       <c r="P11">
-        <v>0.01147856830693082</v>
+        <v>0.009342124750861833</v>
       </c>
       <c r="Q11">
-        <v>12.192806045952</v>
+        <v>12.099821145272</v>
       </c>
       <c r="R11">
-        <v>109.735254413568</v>
+        <v>108.898390307448</v>
       </c>
       <c r="S11">
-        <v>0.00368526287536648</v>
+        <v>0.003356102844302684</v>
       </c>
       <c r="T11">
-        <v>0.003685262875366481</v>
+        <v>0.003356102844302683</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>122.756256</v>
+        <v>121.820091</v>
       </c>
       <c r="H12">
-        <v>368.268768</v>
+        <v>365.460273</v>
       </c>
       <c r="I12">
-        <v>0.321055969422711</v>
+        <v>0.3592440621169263</v>
       </c>
       <c r="J12">
-        <v>0.321055969422711</v>
+        <v>0.3592440621169263</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1175,28 +1175,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.379923</v>
+        <v>0.08773500000000001</v>
       </c>
       <c r="N12">
-        <v>1.139769</v>
+        <v>0.263205</v>
       </c>
       <c r="O12">
-        <v>0.043905939809321</v>
+        <v>0.00825198655277804</v>
       </c>
       <c r="P12">
-        <v>0.043905939809321</v>
+        <v>0.00825198655277804</v>
       </c>
       <c r="Q12">
-        <v>46.637925048288</v>
+        <v>10.687885683885</v>
       </c>
       <c r="R12">
-        <v>419.7413254345921</v>
+        <v>96.19097115496501</v>
       </c>
       <c r="S12">
-        <v>0.01409626406889675</v>
+        <v>0.002964477169754235</v>
       </c>
       <c r="T12">
-        <v>0.01409626406889675</v>
+        <v>0.002964477169754235</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>122.756256</v>
+        <v>121.820091</v>
       </c>
       <c r="H13">
-        <v>368.268768</v>
+        <v>365.460273</v>
       </c>
       <c r="I13">
-        <v>0.321055969422711</v>
+        <v>0.3592440621169263</v>
       </c>
       <c r="J13">
-        <v>0.321055969422711</v>
+        <v>0.3592440621169263</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.144105333333334</v>
+        <v>10.370688</v>
       </c>
       <c r="N13">
-        <v>24.432316</v>
+        <v>31.112064</v>
       </c>
       <c r="O13">
-        <v>0.9411764977800856</v>
+        <v>0.9754234674765666</v>
       </c>
       <c r="P13">
-        <v>0.9411764977800857</v>
+        <v>0.9754234674765666</v>
       </c>
       <c r="Q13">
-        <v>999.7398791896321</v>
+        <v>1263.358155892608</v>
       </c>
       <c r="R13">
-        <v>8997.658912706689</v>
+        <v>11370.22340303347</v>
       </c>
       <c r="S13">
-        <v>0.3021703328926574</v>
+        <v>0.3504150887404593</v>
       </c>
       <c r="T13">
-        <v>0.3021703328926574</v>
+        <v>0.3504150887404593</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>81.80342533333332</v>
+        <v>58.539182</v>
       </c>
       <c r="H14">
-        <v>245.410276</v>
+        <v>175.617546</v>
       </c>
       <c r="I14">
-        <v>0.2139481838098067</v>
+        <v>0.1726304205000311</v>
       </c>
       <c r="J14">
-        <v>0.2139481838098067</v>
+        <v>0.1726304205000311</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.029758</v>
+        <v>0.07423700000000001</v>
       </c>
       <c r="N14">
-        <v>0.08927400000000001</v>
+        <v>0.222711</v>
       </c>
       <c r="O14">
-        <v>0.003438994103662517</v>
+        <v>0.006982421219793508</v>
       </c>
       <c r="P14">
-        <v>0.003438994103662517</v>
+        <v>0.006982421219793506</v>
       </c>
       <c r="Q14">
-        <v>2.434306331069333</v>
+        <v>4.345773254134001</v>
       </c>
       <c r="R14">
-        <v>21.908756979624</v>
+        <v>39.11195928720601</v>
       </c>
       <c r="S14">
-        <v>0.0007357665426112294</v>
+        <v>0.001205378311281293</v>
       </c>
       <c r="T14">
-        <v>0.0007357665426112296</v>
+        <v>0.001205378311281293</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>81.80342533333332</v>
+        <v>58.539182</v>
       </c>
       <c r="H15">
-        <v>245.410276</v>
+        <v>175.617546</v>
       </c>
       <c r="I15">
-        <v>0.2139481838098067</v>
+        <v>0.1726304205000311</v>
       </c>
       <c r="J15">
-        <v>0.2139481838098067</v>
+        <v>0.1726304205000311</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>0.297976</v>
       </c>
       <c r="O15">
-        <v>0.01147856830693082</v>
+        <v>0.009342124750861835</v>
       </c>
       <c r="P15">
-        <v>0.01147856830693082</v>
+        <v>0.009342124750861833</v>
       </c>
       <c r="Q15">
-        <v>8.125152489041778</v>
+        <v>5.814423765210667</v>
       </c>
       <c r="R15">
-        <v>73.126372401376</v>
+        <v>52.32981388689601</v>
       </c>
       <c r="S15">
-        <v>0.002455818842004656</v>
+        <v>0.001612734924105027</v>
       </c>
       <c r="T15">
-        <v>0.002455818842004657</v>
+        <v>0.001612734924105027</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>81.80342533333332</v>
+        <v>58.539182</v>
       </c>
       <c r="H16">
-        <v>245.410276</v>
+        <v>175.617546</v>
       </c>
       <c r="I16">
-        <v>0.2139481838098067</v>
+        <v>0.1726304205000311</v>
       </c>
       <c r="J16">
-        <v>0.2139481838098067</v>
+        <v>0.1726304205000311</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1423,28 +1423,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.379923</v>
+        <v>0.08773500000000001</v>
       </c>
       <c r="N16">
-        <v>1.139769</v>
+        <v>0.263205</v>
       </c>
       <c r="O16">
-        <v>0.043905939809321</v>
+        <v>0.00825198655277804</v>
       </c>
       <c r="P16">
-        <v>0.043905939809321</v>
+        <v>0.00825198655277804</v>
       </c>
       <c r="Q16">
-        <v>31.079002762916</v>
+        <v>5.135935132770001</v>
       </c>
       <c r="R16">
-        <v>279.711024866244</v>
+        <v>46.22341619493</v>
       </c>
       <c r="S16">
-        <v>0.009393596080666916</v>
+        <v>0.001424543908566675</v>
       </c>
       <c r="T16">
-        <v>0.009393596080666918</v>
+        <v>0.001424543908566675</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>81.80342533333332</v>
+        <v>58.539182</v>
       </c>
       <c r="H17">
-        <v>245.410276</v>
+        <v>175.617546</v>
       </c>
       <c r="I17">
-        <v>0.2139481838098067</v>
+        <v>0.1726304205000311</v>
       </c>
       <c r="J17">
-        <v>0.2139481838098067</v>
+        <v>0.1726304205000311</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.144105333333334</v>
+        <v>10.370688</v>
       </c>
       <c r="N17">
-        <v>24.432316</v>
+        <v>31.112064</v>
       </c>
       <c r="O17">
-        <v>0.9411764977800856</v>
+        <v>0.9754234674765666</v>
       </c>
       <c r="P17">
-        <v>0.9411764977800857</v>
+        <v>0.9754234674765666</v>
       </c>
       <c r="Q17">
-        <v>666.2157125421351</v>
+        <v>607.091592297216</v>
       </c>
       <c r="R17">
-        <v>5995.941412879216</v>
+        <v>5463.824330674945</v>
       </c>
       <c r="S17">
-        <v>0.2013630023445238</v>
+        <v>0.1683877633560781</v>
       </c>
       <c r="T17">
-        <v>0.2013630023445239</v>
+        <v>0.1683877633560781</v>
       </c>
     </row>
   </sheetData>
